--- a/Excel_Assignment_19_Answer.xlsx
+++ b/Excel_Assignment_19_Answer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD2ABDA-0A1B-496F-A110-5359632B9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238021A3-FC3C-417B-94E3-690BD2BBF4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Question No.</t>
   </si>
@@ -34,32 +34,366 @@
     <t>What are the data types used in VBA?</t>
   </si>
   <si>
-    <t>3. What is a range object in VBA? What is a worksheet object?</t>
-  </si>
-  <si>
-    <t>4. What is the difference between worksheet and sheet in excel?</t>
-  </si>
-  <si>
-    <t>6. When is offset statement used for in VBA? Let’s suppose your current</t>
-  </si>
-  <si>
-    <t>highlight cell is A1 in the below table. Using OFFSET statement, write a</t>
-  </si>
-  <si>
-    <t>VBA code to highlight the cell with “Hello” written in it.</t>
-  </si>
-  <si>
-    <t>2. What are variables and how do you declare them in VBA? What happens if you don’t declare a variable?</t>
-  </si>
-  <si>
-    <t>5. What is the difference between A1 reference style and R1C1 Reference style? What are the advantages and disadvantages of using R1C1 reference style?</t>
+    <r>
+      <t xml:space="preserve">VBA (Visual Basic for Applications) supports various data types to handle different kinds of values. These data types include:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numeric Data Types:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* Byte
+* Integer
+* Long
+* Single
+* Double
+* Currency
+* Decimal
+* Non-Numeric Data Types:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String (fixed and variable length)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* Boolean (True/False)
+* Date
+* Special Data Types:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object (used for working with objects)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Variant (can hold any data type; can be explicitly declared or left as implicit)
+User-Defined Types: You can also create your own custom data types using the Type statement.</t>
+    </r>
+  </si>
+  <si>
+    <t>What are variables and how do you declare them in VBA? What happens if you don’t declare a variable?</t>
+  </si>
+  <si>
+    <t>What is a range object in VBA? What is a worksheet object?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In VBA, variables are used to store and manipulate data. They have names and data types that define the kind of data they can hold. Variables are essential for performing operations and storing temporary values within your code.
+To declare a variable in VBA, you use the Dim statement, followed by the variable's name and data type. For example:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dim age As Integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This declares a variable named "age" with the data type "Integer".
+If you don't declare a variable, VBA treats it as a Variant type by default. While Variant is versatile, it can lead to inefficient memory usage and potential type-related errors. To enforce variable declaration and improve code quality, it's recommended to use the Option Explicit statement at the top of your module.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In VBA, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Range object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> represents a cell, a group of cells, or a range of cells on a worksheet. It's a fundamental concept used for various operations involving cell data and formatting. The Range object allows you to interact with cells, such as reading and modifying their values, formatting, and performing calculations.
+On the other hand, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Worksheet object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> refers to a single worksheet within an Excel workbook. It's used to manipulate and manage the contents, formatting, and settings of a specific worksheet. You can use Worksheet objects to perform tasks such as reading and writing data, formatting cells, and applying formulas.</t>
+    </r>
+  </si>
+  <si>
+    <t>What is the difference between worksheet and sheet in excel?</t>
+  </si>
+  <si>
+    <t>What is the difference between A1 reference style and R1C1 Reference style? What are the advantages and disadvantages of using R1C1 reference style?</t>
+  </si>
+  <si>
+    <r>
+      <t>In Excel, the terms worksheet and sheet are often used interchangeably, but they have distinct meanings:
+A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> refers to a single page within an Excel file where you input and manipulate data. It's a grid of cells arranged in rows and columns.
+A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a broader term that encompasses both worksheets and other types of sheets like chart sheets or macro sheets.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A1 reference style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the default notation in Excel, where cells are referred to by their column letter followed by row number (e.g., A1, B2).
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1C1 reference style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> represents cells by their row number followed by column number (e.g., R1C1, R2C2). It's useful for relative cell references in formulas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advantages of R1C1 style:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Simplifies relative references: In R1C1, relative references are easier to understand. Moving down increases the row number, and moving right increases the column number.
+2) Consistency: R1C1 is consistent, no matter where a formula is copied.  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disadvantages of R1C1 style:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Less intuitive: Users accustomed to A1 style may find R1C1 harder to grasp initially.
+2) Compatibility: Sharing files with users using A1 style might cause confusion.</t>
+    </r>
+  </si>
+  <si>
+    <t>When is offset statement used for in VBA? Let’s suppose your current highlight cell is A1 in the below table. Using OFFSET statement, write a
+VBA code to highlight the cell with “Hello” written in it.
+A B C
+1 25 354 362
+2 36 6897 962
+3 85 85 Hello
+4 96 365 56
+5 75 62 2662</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The OFFSET statement in VBA is used to reference a cell or range of cells that is a specified number of rows and columns away from a starting cell. It's commonly used to create dynamic ranges or perform calculations based on cell values.
+To highlight the cell with "Hello" in the given table using OFFSET in VBA:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sub HighlightHelloCell()
+    Dim ws As Worksheet
+    Set ws = ThisWorkbook.Sheets("Sheet1") ' Change sheet name as needed
+    Dim startingCell As Range
+    Set startingCell = ws.Range("A1") ' Current highlighted cell
+    Dim targetCell As Range
+    Set targetCell = startingCell.Offset(2, 2) ' Offset 2 rows down and 2 columns right
+    targetCell.Interior.Color = RGB(255, 0, 0) ' Highlight in red
+End Sub</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +405,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,11 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,62 +764,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
